--- a/_doc/123.xlsx
+++ b/_doc/123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\storejj\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC14ABC6-F1C9-4D64-9157-915E2AC27793}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7EE74-9D58-486A-B663-9648F6CE920B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>批量上架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,11 +433,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -741,7 +748,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -753,7 +760,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -761,7 +768,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +786,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -791,8 +798,8 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -803,50 +810,50 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -857,41 +864,41 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -903,8 +910,8 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -915,8 +922,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -925,40 +932,40 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -969,24 +976,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,23 +1002,23 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1023,8 +1030,8 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1035,56 +1042,56 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1095,48 +1102,48 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1147,40 +1154,40 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1191,15 +1198,15 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1211,8 +1218,8 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1223,55 +1230,55 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="3" t="s">
         <v>48</v>
       </c>
@@ -1281,8 +1288,8 @@
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -1291,34 +1298,34 @@
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1327,42 +1334,42 @@
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="9"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -1371,40 +1378,40 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1420,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="3" t="s">
         <v>63</v>
       </c>
@@ -1425,7 +1432,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="3" t="s">
         <v>64</v>
       </c>
@@ -1437,8 +1444,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1447,8 +1454,8 @@
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
@@ -1457,15 +1464,32 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2"/>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A31:A51"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B13:B17"/>
@@ -1476,18 +1500,6 @@
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A52:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_doc/123.xlsx
+++ b/_doc/123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\storejj\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6CB5B3-21B8-4892-96CA-C5318D8D79B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A15E8-A689-4C6F-B18F-E3BF45AC803A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="2700" windowWidth="11640" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
   <si>
     <t>图片验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,22 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员组 system02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置 system03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员日志 system04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员制度配置 system05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">首页 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已删除产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +309,50 @@
   </si>
   <si>
     <t>模块00+菜单00+功能00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管理员组 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">权限配置 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管理员日志 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员制度配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已下架产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,11 +460,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,76 +764,85 @@
     <col min="2" max="2" width="20.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.08203125" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -816,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
@@ -826,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
@@ -834,7 +869,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
@@ -842,7 +877,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
@@ -850,7 +885,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
@@ -858,10 +893,10 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -870,17 +905,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
@@ -888,7 +923,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
@@ -906,10 +941,10 @@
     </row>
     <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -919,7 +954,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -973,7 +1008,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -1026,10 +1061,10 @@
     </row>
     <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -1039,7 +1074,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1076,7 +1111,7 @@
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1084,7 +1119,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1099,7 +1134,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -1120,7 +1155,7 @@
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1128,74 +1163,82 @@
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="B45" s="11"/>
       <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="2"/>
+      <c r="B47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="2" t="s">
-        <v>21</v>
+      <c r="C48" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
@@ -1207,40 +1250,32 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="8" t="s">
-        <v>46</v>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1248,7 +1283,7 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1256,87 +1291,89 @@
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="2" t="s">
-        <v>27</v>
+      <c r="B58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
+      <c r="C59" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>28</v>
+      <c r="B60" s="11"/>
+      <c r="C60" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>29</v>
+      <c r="B61" s="11"/>
+      <c r="C61" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="5" t="s">
-        <v>30</v>
+      <c r="A62" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1344,25 +1381,25 @@
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -1370,138 +1407,145 @@
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="B70" s="11"/>
       <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
+      <c r="C71" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="B73" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
-      <c r="B77" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
-      <c r="B78" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="C78" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A52:A64"/>
+  <mergeCells count="25">
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A62:A78"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A49:A61"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A31:A48"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A18:A30"/>

--- a/_doc/123.xlsx
+++ b/_doc/123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\storejj\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A15E8-A689-4C6F-B18F-E3BF45AC803A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABB9DD-CDD2-40ED-A0A2-F842D38AFFE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2700" windowWidth="11640" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
   <si>
     <t>图片验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,12 +464,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -782,7 +788,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -792,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
@@ -814,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -840,8 +846,8 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -852,50 +858,50 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -906,41 +912,41 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -952,8 +958,8 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -964,8 +970,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
@@ -974,40 +980,40 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1018,24 +1024,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1044,23 +1050,23 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1072,8 +1078,8 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1084,56 +1090,56 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1144,32 +1150,32 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1180,32 +1186,32 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1216,15 +1222,15 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1236,8 +1242,8 @@
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1248,55 +1254,55 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
@@ -1306,44 +1312,44 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="5" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1352,42 +1358,42 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1396,40 +1402,40 @@
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1444,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="3" t="s">
         <v>77</v>
       </c>
@@ -1450,7 +1456,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="3" t="s">
         <v>78</v>
       </c>
@@ -1462,8 +1468,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -1472,8 +1478,8 @@
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
@@ -1482,16 +1488,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
@@ -1501,31 +1507,40 @@
       <c r="A79" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="2" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="E2:E4"/>
@@ -1542,15 +1557,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A31:A48"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_doc/123.xlsx
+++ b/_doc/123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\storejj\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABB9DD-CDD2-40ED-A0A2-F842D38AFFE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186E492B-A274-4FAF-BE45-33894B0ED3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>图片验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键词搜索、翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级唯一，此处添加的会员制度用于会员分级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块00+菜单00+功能00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,11 +340,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已下架产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词搜索、时间段筛选、翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号、标题搜索，类型筛选，时间段筛选；翻页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,13 +369,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,42 +430,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -773,82 +756,78 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1">
-        <v>99</v>
-      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
+      <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>51</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -856,53 +835,59 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -910,57 +895,63 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>54</v>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -968,53 +959,59 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>55</v>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -1022,65 +1019,72 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
-        <v>56</v>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1088,59 +1092,66 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="4" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="9" t="s">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="9" t="s">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="9" t="s">
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8" t="s">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
-        <v>57</v>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -1148,35 +1159,39 @@
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
-        <v>58</v>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>6</v>
@@ -1184,35 +1199,39 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8" t="s">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13" t="s">
-        <v>81</v>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
@@ -1220,31 +1239,34 @@
       <c r="D47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="8" t="s">
-        <v>45</v>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>53</v>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13" t="s">
-        <v>59</v>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
@@ -1252,201 +1274,224 @@
       <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="3" t="s">
-        <v>60</v>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13" t="s">
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13" t="s">
-        <v>76</v>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="8" t="s">
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="3" t="s">
-        <v>77</v>
+        <v>43</v>
+      </c>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>37</v>
@@ -1454,84 +1499,98 @@
       <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="3" t="s">
-        <v>78</v>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13" t="s">
         <v>79</v>
+      </c>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="D76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="C79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A6:A17"/>
@@ -1543,7 +1602,6 @@
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="A79:A81"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B75:B78"/>

--- a/_doc/123.xlsx
+++ b/_doc/123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\storejj\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186E492B-A274-4FAF-BE45-33894B0ED3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA15F15-5F80-4244-8B70-C2BE33769846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>图片验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>编号、标题搜索，类型筛选，时间段筛选；翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,9 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,10 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -757,20 +761,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -783,7 +787,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
@@ -792,7 +796,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -822,11 +826,11 @@
         <v>11</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -835,58 +839,58 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -895,48 +899,48 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -946,11 +950,11 @@
         <v>11</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -959,58 +963,58 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1019,57 +1023,57 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1079,11 +1083,11 @@
         <v>11</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1092,65 +1096,65 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1159,38 +1163,38 @@
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1199,38 +1203,38 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1239,19 +1243,19 @@
       <c r="D47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -1261,11 +1265,11 @@
         <v>11</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1274,64 +1278,64 @@
       <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="7" t="s">
         <v>59</v>
       </c>
@@ -1339,157 +1343,157 @@
         <v>27</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="11"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="11"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="11"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="7" t="s">
         <v>75</v>
       </c>
@@ -1499,10 +1503,10 @@
       <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="7" t="s">
         <v>76</v>
       </c>
@@ -1512,85 +1516,138 @@
       <c r="D74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="11"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="11"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12"/>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A31:A48"/>
+    <mergeCell ref="A62:A82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A6:A17"/>
@@ -1600,20 +1657,6 @@
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A62:A78"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A31:A48"/>
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
